--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium_WorkSpace\RestAssuredFrameWork\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB8CF9-9CB7-46EA-A0CF-EC9ACE7149E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B8924DBE-2CD4-40A0-B06A-EB1466F81FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="29070" windowHeight="16500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="TestData" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -190,38 +186,29 @@
     <t>listSingleCustomer</t>
   </si>
   <si>
-    <t>cus_KGEhqju6ro8Uwb</t>
-  </si>
-  <si>
-    <t>cus_KGEhFx4p2H6FlP</t>
-  </si>
-  <si>
-    <t>cus_KGEhqcFhMCzca7</t>
-  </si>
-  <si>
     <t>updateSingleCustomer</t>
   </si>
   <si>
-    <t>cus_KGjBNg4DytwUUn</t>
-  </si>
-  <si>
-    <t>cus_KGj3PrO5PpRTia</t>
-  </si>
-  <si>
-    <t>cus_KGj3HRyHuuBwG3</t>
-  </si>
-  <si>
-    <t>cus_KGj3INOx03VAkY</t>
-  </si>
-  <si>
-    <t>cus_KGixr3bEjuu2JZ</t>
+    <t>cus_KHPFzl6Rge4XjS</t>
+  </si>
+  <si>
+    <t>cus_KHPFhpYfC1TpzV</t>
+  </si>
+  <si>
+    <t>cus_KHPFFr9kPB6111</t>
+  </si>
+  <si>
+    <t>cus_KHPA0HWMcTL3lI</t>
+  </si>
+  <si>
+    <t>cus_KHPAsgdzVEm61R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +245,127 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +378,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -281,22 +560,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -962,7 +1431,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,8 +1681,8 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>57</v>
+      <c r="A14" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1225,8 +1694,8 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
+      <c r="A15" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1238,8 +1707,8 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
+      <c r="A16" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1251,8 +1720,8 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
+      <c r="A17" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1264,8 +1733,8 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
+      <c r="A18" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1298,28 +1767,28 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1358,8 +1827,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
+      <c r="A29" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -1390,8 +1859,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>54</v>
+      <c r="A30" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -1422,8 +1891,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>55</v>
+      <c r="A31" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>

--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B8924DBE-2CD4-40A0-B06A-EB1466F81FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium_WorkSpace\RestAssuredFrameWork\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A6AE2-F668-480D-B884-824576280FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="29070" windowHeight="16500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="TestData" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -189,19 +193,25 @@
     <t>updateSingleCustomer</t>
   </si>
   <si>
-    <t>cus_KHPFzl6Rge4XjS</t>
-  </si>
-  <si>
-    <t>cus_KHPFhpYfC1TpzV</t>
-  </si>
-  <si>
-    <t>cus_KHPFFr9kPB6111</t>
-  </si>
-  <si>
-    <t>cus_KHPA0HWMcTL3lI</t>
-  </si>
-  <si>
-    <t>cus_KHPAsgdzVEm61R</t>
+    <t>cus_KHPAJc1Gvehntk</t>
+  </si>
+  <si>
+    <t>cus_KHOlsXxLKlX9nS</t>
+  </si>
+  <si>
+    <t>cus_KHOldthDPbluyt</t>
+  </si>
+  <si>
+    <t>cus_KHOl86QmF04Gkg</t>
+  </si>
+  <si>
+    <t>cus_KHOfAbofEB8AAm</t>
+  </si>
+  <si>
+    <t>cus_KHOf8fZSlUWWzy</t>
+  </si>
+  <si>
+    <t>cus_KHOfRPNKXnm5rP</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1441,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A29" sqref="A29:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,9 +1743,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
@@ -1828,7 +1836,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -1860,7 +1868,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -1892,7 +1900,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
